--- a/Test_Data/OrangeHRM_Test_Data.xlsx
+++ b/Test_Data/OrangeHRM_Test_Data.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/Test_Data/OrangeHRM_Test_Data.xlsx
+++ b/Test_Data/OrangeHRM_Test_Data.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
